--- a/regions/8/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/8/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,13 +90,13 @@
     <t>*წინასწარი მონაცემები.</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -130,15 +134,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +235,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
@@ -292,30 +294,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,20 +320,26 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -647,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -660,17 +662,17 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -681,568 +683,495 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2009</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>15529.003999999997</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>11814.099799999998</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>9919.5726999999988</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>12502.338500000002</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>49765.014999999999</v>
       </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2010</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>14220.747400000002</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>36320.948600000003</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>6195.5418999999974</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>9948.1463000000022</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>66685.384200000015</v>
       </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2011</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>32740.701900000007</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>-12039.097800000003</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>57032.336199999998</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>69148.689400000003</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>146882.62969999999</v>
       </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2012</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>29143.137408300001</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>-4497.5005011000094</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>7853.5768142000015</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>9149.0547975999998</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>41648.26851899999</v>
       </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2013</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>9625.5446000000065</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>5154.7849999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>3503.7128999999991</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>-626.04310000000009</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>17657.999400000008</v>
       </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2014</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>8546.2313000000013</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>20652.308699999998</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>14868.583899999998</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>11604.393999999998</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>55671.517899999992</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>2015</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>9266.2234999999946</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>55.893400000000042</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>7992.1573999999964</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>3866.2461000000039</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>21180.52039999999</v>
       </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2016</v>
       </c>
-      <c r="B12" s="16">
-        <v>-7710.1691999999948</v>
-      </c>
-      <c r="C12" s="16">
-        <v>20623.319599999999</v>
-      </c>
-      <c r="D12" s="16">
-        <v>42438.14880000001</v>
-      </c>
-      <c r="E12" s="16">
-        <v>-26221.352000000017</v>
-      </c>
-      <c r="F12" s="17">
-        <v>29129.947199999999</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B12" s="14">
+        <v>-7710.1694000000016</v>
+      </c>
+      <c r="C12" s="14">
+        <v>20623.319399999986</v>
+      </c>
+      <c r="D12" s="14">
+        <v>42438.148399999984</v>
+      </c>
+      <c r="E12" s="14">
+        <v>-26221.351999999999</v>
+      </c>
+      <c r="F12" s="15">
+        <v>29129.946399999972</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2017</v>
       </c>
-      <c r="B13" s="16">
-        <v>18639.671500000004</v>
-      </c>
-      <c r="C13" s="16">
-        <v>22099.771400000001</v>
-      </c>
-      <c r="D13" s="16">
-        <v>20394.692599999998</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3509.9126999999962</v>
-      </c>
-      <c r="F13" s="17">
-        <v>64644.048199999997</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="14">
+        <v>18639.671800000015</v>
+      </c>
+      <c r="C13" s="14">
+        <v>22099.771700000001</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20394.692599999988</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3509.9124999999913</v>
+      </c>
+      <c r="F13" s="15">
+        <v>64644.048599999995</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2018</v>
       </c>
-      <c r="B14" s="16">
-        <v>29581.328000000009</v>
-      </c>
-      <c r="C14" s="16">
-        <v>27400.768599999989</v>
-      </c>
-      <c r="D14" s="16">
-        <v>12889.674100000011</v>
-      </c>
-      <c r="E14" s="16">
-        <v>16408.059600000001</v>
-      </c>
-      <c r="F14" s="17">
-        <v>86279.830300000001</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="B14" s="14">
+        <v>29582.929299999993</v>
+      </c>
+      <c r="C14" s="14">
+        <v>27400.768400000004</v>
+      </c>
+      <c r="D14" s="14">
+        <v>12889.673100000005</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16406.571800000005</v>
+      </c>
+      <c r="F14" s="15">
+        <v>86279.942600000009</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2019</v>
       </c>
-      <c r="B15" s="16">
-        <v>4786.9336000000021</v>
-      </c>
-      <c r="C15" s="16">
-        <v>20743.23420000001</v>
-      </c>
-      <c r="D15" s="16">
-        <v>23261.557300000004</v>
-      </c>
-      <c r="E15" s="16">
-        <v>-99.189300000003058</v>
-      </c>
-      <c r="F15" s="17">
-        <v>48692.535800000005</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="14">
+        <v>4786.9339</v>
+      </c>
+      <c r="C15" s="14">
+        <v>20743.233700000012</v>
+      </c>
+      <c r="D15" s="14">
+        <v>23261.557000000001</v>
+      </c>
+      <c r="E15" s="14">
+        <v>-99.188999999996398</v>
+      </c>
+      <c r="F15" s="15">
+        <v>48692.535600000017</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>2020</v>
       </c>
-      <c r="B16" s="16">
-        <v>8155.0880999999972</v>
-      </c>
-      <c r="C16" s="16">
-        <v>28504.292600000004</v>
-      </c>
-      <c r="D16" s="16">
-        <v>37353.7454</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4696.0728000000036</v>
-      </c>
-      <c r="F16" s="17">
-        <v>78709.198900000003</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="B16" s="14">
+        <v>8155.087999999997</v>
+      </c>
+      <c r="C16" s="14">
+        <v>28504.292599999997</v>
+      </c>
+      <c r="D16" s="14">
+        <v>37353.745400000007</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4696.0725000000102</v>
+      </c>
+      <c r="F16" s="15">
+        <v>78709.198500000013</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>2021</v>
       </c>
-      <c r="B17" s="16">
-        <v>-8740.4194999999945</v>
-      </c>
-      <c r="C17" s="16">
-        <v>13750.938699999999</v>
-      </c>
-      <c r="D17" s="16">
-        <v>20486.265099999997</v>
-      </c>
-      <c r="E17" s="16">
-        <v>-4153.6115999999993</v>
-      </c>
-      <c r="F17" s="17">
-        <v>21343.172699999999</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="14">
+        <v>-8271.5859</v>
+      </c>
+      <c r="C17" s="14">
+        <v>14901.106199999991</v>
+      </c>
+      <c r="D17" s="14">
+        <v>21701.210599999991</v>
+      </c>
+      <c r="E17" s="14">
+        <v>-2941.6534999999981</v>
+      </c>
+      <c r="F17" s="15">
+        <v>25389.077399999984</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="14">
+        <v>12218.851800000002</v>
+      </c>
+      <c r="C18" s="14">
+        <v>12569.946899999999</v>
+      </c>
+      <c r="D18" s="14">
+        <v>26463.087800000008</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-16118.168300000003</v>
+      </c>
+      <c r="F18" s="15">
+        <v>35133.718200000003</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="14">
+        <v>13595.197000000002</v>
+      </c>
+      <c r="C19" s="14">
+        <v>-2580.5685000000008</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3432.5870000000018</v>
+      </c>
+      <c r="E19" s="14">
+        <v>-18244.304599999999</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-3797.0890999999974</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16">
-        <v>10083.477800000008</v>
-      </c>
-      <c r="C18" s="16">
-        <v>8604.8982000000015</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17">
-        <v>18688.376000000011</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B20" s="14">
+        <v>-4362.6406000000006</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15">
+        <v>-4362.6406000000006</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1253,17 +1182,35 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/8/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/8/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -329,17 +329,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -652,7 +652,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,14 +663,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -699,19 +699,19 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
@@ -1018,7 +1018,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="14">
-        <v>13595.197000000002</v>
+        <v>216786.12299999993</v>
       </c>
       <c r="C19" s="14">
         <v>-2580.5685000000008</v>
@@ -1030,7 +1030,7 @@
         <v>-18244.304599999999</v>
       </c>
       <c r="F19" s="15">
-        <v>-3797.0890999999974</v>
+        <v>199393.83689999994</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1041,11 +1041,13 @@
       <c r="B20" s="14">
         <v>-4362.6406000000006</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>9848.3499999999913</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15">
-        <v>-4362.6406000000006</v>
+        <v>5485.7093999999906</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1158,16 +1160,16 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
